--- a/No. 7 Coal Mine, United States, M1051.xlsx
+++ b/No. 7 Coal Mine, United States, M1051.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for No. 7 Coal Mine, United States, M1051, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for No. 7 Coal Mine, United States, M1051, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">

--- a/No. 7 Coal Mine, United States, M1051.xlsx
+++ b/No. 7 Coal Mine, United States, M1051.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for No. 7 Coal Mine, United States, M1051, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for No. 7 Coal Mine, United States, M1051, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">

--- a/No. 7 Coal Mine, United States, M1051.xlsx
+++ b/No. 7 Coal Mine, United States, M1051.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for No. 7 Coal Mine, United States, M1051, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for No. 7 Coal Mine, United States, M1051, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">

--- a/No. 7 Coal Mine, United States, M1051.xlsx
+++ b/No. 7 Coal Mine, United States, M1051.xlsx
@@ -432,7 +432,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -538,7 +538,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for No. 7 Coal Mine, United States, M1051, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for No. 7 Coal Mine, United States, M1051, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2731,7 +2731,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2915,7 +2915,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="S14" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T14" s="0" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="S15" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T15" s="0" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="S16" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T16" s="0" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="S17" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T17" s="0" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="S18" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T18" s="0" t="inlineStr">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="S19" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T19" s="0" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="S20" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T20" s="0" t="inlineStr">
@@ -4019,7 +4019,7 @@
       </c>
       <c r="S21" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T21" s="0" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="S22" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T22" s="0" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="S23" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T23" s="0" t="inlineStr">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="S24" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T24" s="0" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="S25" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T25" s="0" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="S26" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T26" s="0" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="S27" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T27" s="0" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="S28" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T28" s="0" t="inlineStr">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="S29" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T29" s="0" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="S30" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T30" s="0" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </c>
       <c r="S31" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T31" s="0" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="S32" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T32" s="0" t="inlineStr">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="S33" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T33" s="0" t="inlineStr">
